--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-device.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -412,7 +412,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -768,7 +768,7 @@
 </t>
   </si>
   <si>
-    <t>UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
+    <t>UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](http://hl7.org/fhir/R4/device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
   </si>
   <si>
     <t>.id and .code</t>
@@ -1757,17 +1757,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.56640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.6015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.44140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1776,24 +1776,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.90625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.4921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-device.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -405,7 +405,7 @@
     <t>Device.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -437,7 +437,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -455,7 +455,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -499,7 +499,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -585,7 +585,7 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -668,7 +668,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -754,7 +754,7 @@
     <t>Device.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DeviceDefinition)
+    <t xml:space="preserve">Reference(DeviceDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -962,7 +962,7 @@
     <t>The availability status reason of the device.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/device-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Device.distinctIdentifier</t>
@@ -1134,7 +1134,7 @@
     <t>Codes to identify medical devices.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-type</t>
+    <t>http://hl7.org/fhir/ValueSet/device-type|4.0.1</t>
   </si>
   <si>
     <t>Device.specialization</t>
@@ -1258,7 +1258,7 @@
     <t>Device.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -1308,7 +1308,7 @@
     <t>Device.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1364,7 +1364,7 @@
     <t>Device.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1437,7 +1437,7 @@
     <t>Device.parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1757,17 +1757,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.6015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.44140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.44140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.9609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1776,25 +1776,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.4921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.49609375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="230.36328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
